--- a/data/china_ie_partner/2018-03.xlsx
+++ b/data/china_ie_partner/2018-03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222CCBDC-404C-A64C-A76E-FB72CCED8F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2168E8F9-5718-724A-BEF0-5E11DF61CB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,669 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -706,76 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -832,10 +1076,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1202,7 +1447,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1218,24 +1463,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>24855</v>
+        <v>39137</v>
       </c>
       <c r="C2" s="3">
-        <v>24387</v>
+        <v>38401</v>
       </c>
       <c r="D2" s="2">
-        <v>468</v>
+        <v>736</v>
       </c>
       <c r="E2" s="6">
         <v>2018</v>
@@ -1249,17 +1494,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>62945</v>
+        <v>98797</v>
       </c>
       <c r="C3" s="3">
-        <v>53498</v>
+        <v>83906</v>
       </c>
       <c r="D3" s="3">
-        <v>9448</v>
+        <v>14892</v>
       </c>
       <c r="E3" s="6">
         <v>2018</v>
@@ -1273,17 +1518,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>790109</v>
+        <v>1241151</v>
       </c>
       <c r="C4" s="3">
-        <v>734537</v>
+        <v>1153585</v>
       </c>
       <c r="D4" s="3">
-        <v>55572</v>
+        <v>87566</v>
       </c>
       <c r="E4" s="6">
         <v>2018</v>
@@ -1297,14 +1542,14 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="A5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="C5" s="2">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1321,17 +1566,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>103030</v>
+        <v>162135</v>
       </c>
       <c r="C6" s="3">
-        <v>88804</v>
+        <v>139801</v>
       </c>
       <c r="D6" s="3">
-        <v>14226</v>
+        <v>22333</v>
       </c>
       <c r="E6" s="6">
         <v>2018</v>
@@ -1345,17 +1590,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>833632</v>
+        <v>1314480</v>
       </c>
       <c r="C7" s="3">
-        <v>550447</v>
+        <v>867579</v>
       </c>
       <c r="D7" s="3">
-        <v>283184</v>
+        <v>446901</v>
       </c>
       <c r="E7" s="6">
         <v>2018</v>
@@ -1369,17 +1614,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>293473</v>
+        <v>462270</v>
       </c>
       <c r="C8" s="3">
-        <v>233701</v>
+        <v>368111</v>
       </c>
       <c r="D8" s="3">
-        <v>59772</v>
+        <v>94159</v>
       </c>
       <c r="E8" s="6">
         <v>2018</v>
@@ -1393,17 +1638,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>39473</v>
+        <v>61033</v>
       </c>
       <c r="C9" s="3">
-        <v>36439</v>
+        <v>56263</v>
       </c>
       <c r="D9" s="3">
-        <v>3034</v>
+        <v>4770</v>
       </c>
       <c r="E9" s="6">
         <v>2018</v>
@@ -1417,17 +1662,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>98607</v>
+        <v>155307</v>
       </c>
       <c r="C10" s="3">
-        <v>90754</v>
+        <v>142929</v>
       </c>
       <c r="D10" s="3">
-        <v>7854</v>
+        <v>12378</v>
       </c>
       <c r="E10" s="6">
         <v>2018</v>
@@ -1442,16 +1687,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="7" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>15885957</v>
+        <v>24957918</v>
       </c>
       <c r="C11" s="3">
-        <v>15424957</v>
+        <v>24232990</v>
       </c>
       <c r="D11" s="3">
-        <v>461000</v>
+        <v>724928</v>
       </c>
       <c r="E11" s="6">
         <v>2018</v>
@@ -1465,17 +1710,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>4607102</v>
+        <v>7247461</v>
       </c>
       <c r="C12" s="3">
-        <v>3529838</v>
+        <v>5550655</v>
       </c>
       <c r="D12" s="3">
-        <v>1077264</v>
+        <v>1696806</v>
       </c>
       <c r="E12" s="6">
         <v>2018</v>
@@ -1489,17 +1734,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>3932374</v>
+        <v>6187015</v>
       </c>
       <c r="C13" s="3">
-        <v>1917477</v>
+        <v>3014895</v>
       </c>
       <c r="D13" s="3">
-        <v>2014896</v>
+        <v>3172120</v>
       </c>
       <c r="E13" s="6">
         <v>2018</v>
@@ -1513,17 +1758,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>2035164</v>
+        <v>3202482</v>
       </c>
       <c r="C14" s="3">
-        <v>672160</v>
+        <v>1057984</v>
       </c>
       <c r="D14" s="3">
-        <v>1363004</v>
+        <v>2144497</v>
       </c>
       <c r="E14" s="6">
         <v>2018</v>
@@ -1537,17 +1782,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>1377865</v>
+        <v>2169905</v>
       </c>
       <c r="C15" s="3">
-        <v>293588</v>
+        <v>461837</v>
       </c>
       <c r="D15" s="3">
-        <v>1084276</v>
+        <v>1708068</v>
       </c>
       <c r="E15" s="6">
         <v>2018</v>
@@ -1561,17 +1806,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>684418</v>
+        <v>1077259</v>
       </c>
       <c r="C16" s="3">
-        <v>354947</v>
+        <v>557929</v>
       </c>
       <c r="D16" s="3">
-        <v>329471</v>
+        <v>519330</v>
       </c>
       <c r="E16" s="6">
         <v>2018</v>
@@ -1585,17 +1830,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>17787948</v>
+        <v>28024738</v>
       </c>
       <c r="C17" s="3">
-        <v>7391921</v>
+        <v>11636397</v>
       </c>
       <c r="D17" s="3">
-        <v>10396026</v>
+        <v>16388341</v>
       </c>
       <c r="E17" s="6">
         <v>2018</v>
@@ -1609,17 +1854,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>118676</v>
+        <v>186720</v>
       </c>
       <c r="C18" s="3">
-        <v>103773</v>
+        <v>163240</v>
       </c>
       <c r="D18" s="3">
-        <v>14903</v>
+        <v>23480</v>
       </c>
       <c r="E18" s="6">
         <v>2018</v>
@@ -1633,17 +1878,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>968580</v>
+        <v>1525729</v>
       </c>
       <c r="C19" s="3">
-        <v>114993</v>
+        <v>180761</v>
       </c>
       <c r="D19" s="3">
-        <v>853587</v>
+        <v>1344967</v>
       </c>
       <c r="E19" s="6">
         <v>2018</v>
@@ -1657,17 +1902,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
+      <c r="A20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>194441</v>
+        <v>306737</v>
       </c>
       <c r="C20" s="3">
-        <v>66917</v>
+        <v>105500</v>
       </c>
       <c r="D20" s="3">
-        <v>127523</v>
+        <v>201237</v>
       </c>
       <c r="E20" s="6">
         <v>2018</v>
@@ -1681,17 +1926,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>86303</v>
+        <v>135695</v>
       </c>
       <c r="C21" s="3">
-        <v>83723</v>
+        <v>131628</v>
       </c>
       <c r="D21" s="3">
-        <v>2580</v>
+        <v>4067</v>
       </c>
       <c r="E21" s="6">
         <v>2018</v>
@@ -1705,17 +1950,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>226</v>
+      <c r="A22" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>149243</v>
+        <v>234903</v>
       </c>
       <c r="C22" s="3">
-        <v>145312</v>
+        <v>228711</v>
       </c>
       <c r="D22" s="3">
-        <v>3931</v>
+        <v>6192</v>
       </c>
       <c r="E22" s="6">
         <v>2018</v>
@@ -1729,17 +1974,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>222</v>
+      <c r="A23" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>5547015</v>
+        <v>8726292</v>
       </c>
       <c r="C23" s="3">
-        <v>2190936</v>
+        <v>3443064</v>
       </c>
       <c r="D23" s="3">
-        <v>3356079</v>
+        <v>5283229</v>
       </c>
       <c r="E23" s="6">
         <v>2018</v>
@@ -1753,17 +1998,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>14060</v>
+        <v>22017</v>
       </c>
       <c r="C24" s="3">
-        <v>13954</v>
+        <v>21852</v>
       </c>
       <c r="D24" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E24" s="6">
         <v>2018</v>
@@ -1777,17 +2022,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>383623</v>
+        <v>605116</v>
       </c>
       <c r="C25" s="3">
-        <v>74608</v>
+        <v>117606</v>
       </c>
       <c r="D25" s="3">
-        <v>309015</v>
+        <v>487510</v>
       </c>
       <c r="E25" s="6">
         <v>2018</v>
@@ -1801,17 +2046,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>227</v>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>32675</v>
+        <v>51446</v>
       </c>
       <c r="C26" s="3">
-        <v>31733</v>
-      </c>
-      <c r="D26" s="2">
-        <v>941</v>
+        <v>49961</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1485</v>
       </c>
       <c r="E26" s="6">
         <v>2018</v>
@@ -1825,17 +2070,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>790078</v>
+        <v>1244766</v>
       </c>
       <c r="C27" s="3">
-        <v>141903</v>
+        <v>223327</v>
       </c>
       <c r="D27" s="3">
-        <v>648175</v>
+        <v>1021440</v>
       </c>
       <c r="E27" s="6">
         <v>2018</v>
@@ -1849,17 +2094,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>839644</v>
+        <v>1320060</v>
       </c>
       <c r="C28" s="3">
-        <v>686626</v>
+        <v>1079006</v>
       </c>
       <c r="D28" s="3">
-        <v>153018</v>
+        <v>241053</v>
       </c>
       <c r="E28" s="6">
         <v>2018</v>
@@ -1873,17 +2118,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>2983</v>
+        <v>4700</v>
       </c>
       <c r="C29" s="3">
-        <v>2906</v>
+        <v>4578</v>
       </c>
       <c r="D29" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="E29" s="6">
         <v>2018</v>
@@ -1897,17 +2142,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
+      <c r="A30" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>2623263</v>
+        <v>4125083</v>
       </c>
       <c r="C30" s="3">
-        <v>1483078</v>
+        <v>2329624</v>
       </c>
       <c r="D30" s="3">
-        <v>1140185</v>
+        <v>1795459</v>
       </c>
       <c r="E30" s="6">
         <v>2018</v>
@@ -1921,17 +2166,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
+      <c r="A31" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>604242</v>
+        <v>951039</v>
       </c>
       <c r="C31" s="3">
-        <v>96051</v>
+        <v>150779</v>
       </c>
       <c r="D31" s="3">
-        <v>508190</v>
+        <v>800260</v>
       </c>
       <c r="E31" s="6">
         <v>2018</v>
@@ -1945,17 +2190,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
+      <c r="A32" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>2960953</v>
+        <v>4662333</v>
       </c>
       <c r="C32" s="3">
-        <v>687817</v>
+        <v>1081218</v>
       </c>
       <c r="D32" s="3">
-        <v>2273136</v>
+        <v>3581115</v>
       </c>
       <c r="E32" s="6">
         <v>2018</v>
@@ -1969,17 +2214,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>4416380</v>
+        <v>6932926</v>
       </c>
       <c r="C33" s="3">
-        <v>2706313</v>
+        <v>4239336</v>
       </c>
       <c r="D33" s="3">
-        <v>1710068</v>
+        <v>2693591</v>
       </c>
       <c r="E33" s="6">
         <v>2018</v>
@@ -1993,17 +2238,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
+      <c r="A34" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>16451541</v>
+        <v>25887248</v>
       </c>
       <c r="C34" s="3">
-        <v>5670341</v>
+        <v>8907244</v>
       </c>
       <c r="D34" s="3">
-        <v>10781199</v>
+        <v>16980004</v>
       </c>
       <c r="E34" s="6">
         <v>2018</v>
@@ -2017,17 +2262,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>216768</v>
+        <v>339300</v>
       </c>
       <c r="C35" s="3">
-        <v>196153</v>
+        <v>306824</v>
       </c>
       <c r="D35" s="3">
-        <v>20615</v>
+        <v>32476</v>
       </c>
       <c r="E35" s="6">
         <v>2018</v>
@@ -2041,17 +2286,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>32576</v>
+        <v>51162</v>
       </c>
       <c r="C36" s="3">
-        <v>32541</v>
+        <v>51108</v>
       </c>
       <c r="D36" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E36" s="6">
         <v>2018</v>
@@ -2065,17 +2310,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
+      <c r="A37" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>4659212</v>
+        <v>7334929</v>
       </c>
       <c r="C37" s="3">
-        <v>2124498</v>
+        <v>3342130</v>
       </c>
       <c r="D37" s="3">
-        <v>2534714</v>
+        <v>3992799</v>
       </c>
       <c r="E37" s="6">
         <v>2018</v>
@@ -2089,17 +2334,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
+      <c r="A38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1134118</v>
+        <v>1781351</v>
       </c>
       <c r="C38" s="3">
-        <v>925782</v>
+        <v>1453414</v>
       </c>
       <c r="D38" s="3">
-        <v>208336</v>
+        <v>327937</v>
       </c>
       <c r="E38" s="6">
         <v>2018</v>
@@ -2113,17 +2358,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
+      <c r="A39" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2051026</v>
+        <v>3226404</v>
       </c>
       <c r="C39" s="3">
-        <v>1270128</v>
+        <v>1996344</v>
       </c>
       <c r="D39" s="3">
-        <v>780898</v>
+        <v>1230060</v>
       </c>
       <c r="E39" s="6">
         <v>2018</v>
@@ -2137,17 +2382,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
+      <c r="A40" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>94496</v>
+        <v>148760</v>
       </c>
       <c r="C40" s="3">
-        <v>49167</v>
+        <v>77298</v>
       </c>
       <c r="D40" s="3">
-        <v>45328</v>
+        <v>71462</v>
       </c>
       <c r="E40" s="6">
         <v>2018</v>
@@ -2161,17 +2406,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
+      <c r="A41" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>6697585</v>
+        <v>10552556</v>
       </c>
       <c r="C41" s="3">
-        <v>4245753</v>
+        <v>6687449</v>
       </c>
       <c r="D41" s="3">
-        <v>2451833</v>
+        <v>3865108</v>
       </c>
       <c r="E41" s="6">
         <v>2018</v>
@@ -2185,17 +2430,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>7342754</v>
+        <v>11555270</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>7342754</v>
+        <v>11555270</v>
       </c>
       <c r="E42" s="6">
         <v>2018</v>
@@ -2210,16 +2455,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="7" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>12019392</v>
+        <v>18919470</v>
       </c>
       <c r="C43" s="3">
-        <v>2384247</v>
+        <v>3749729</v>
       </c>
       <c r="D43" s="3">
-        <v>9635145</v>
+        <v>15169741</v>
       </c>
       <c r="E43" s="6">
         <v>2018</v>
@@ -2233,17 +2478,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
+      <c r="A44" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>3454</v>
+        <v>5420</v>
       </c>
       <c r="C44" s="3">
-        <v>3450</v>
+        <v>5414</v>
       </c>
       <c r="D44" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6">
         <v>2018</v>
@@ -2257,17 +2502,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>784043</v>
+        <v>1233421</v>
       </c>
       <c r="C45" s="3">
-        <v>393338</v>
+        <v>617664</v>
       </c>
       <c r="D45" s="3">
-        <v>390705</v>
+        <v>615757</v>
       </c>
       <c r="E45" s="6">
         <v>2018</v>
@@ -2281,17 +2526,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>250386</v>
+        <v>394448</v>
       </c>
       <c r="C46" s="3">
-        <v>245742</v>
+        <v>387125</v>
       </c>
       <c r="D46" s="3">
-        <v>4645</v>
+        <v>7323</v>
       </c>
       <c r="E46" s="6">
         <v>2018</v>
@@ -2305,17 +2550,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
+      <c r="A47" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>50928</v>
+        <v>80204</v>
       </c>
       <c r="C47" s="3">
-        <v>47865</v>
+        <v>75371</v>
       </c>
       <c r="D47" s="3">
-        <v>3063</v>
+        <v>4832</v>
       </c>
       <c r="E47" s="6">
         <v>2018</v>
@@ -2329,17 +2574,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
+      <c r="A48" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>439720</v>
+        <v>693173</v>
       </c>
       <c r="C48" s="3">
-        <v>8945</v>
+        <v>14019</v>
       </c>
       <c r="D48" s="3">
-        <v>430775</v>
+        <v>679154</v>
       </c>
       <c r="E48" s="6">
         <v>2018</v>
@@ -2353,17 +2598,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>228</v>
+      <c r="A49" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>221261</v>
+        <v>346933</v>
       </c>
       <c r="C49" s="3">
-        <v>161040</v>
+        <v>251994</v>
       </c>
       <c r="D49" s="3">
-        <v>60220</v>
+        <v>94939</v>
       </c>
       <c r="E49" s="6">
         <v>2018</v>
@@ -2377,14 +2622,14 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
+      <c r="A50" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2401,17 +2646,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
+      <c r="A51" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>9754206</v>
+        <v>15330228</v>
       </c>
       <c r="C51" s="3">
-        <v>4085265</v>
+        <v>6396440</v>
       </c>
       <c r="D51" s="3">
-        <v>5668941</v>
+        <v>8933788</v>
       </c>
       <c r="E51" s="6">
         <v>2018</v>
@@ -2425,17 +2670,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
+      <c r="A52" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>641800</v>
+        <v>985675</v>
       </c>
       <c r="C52" s="3">
-        <v>633122</v>
+        <v>971978</v>
       </c>
       <c r="D52" s="3">
-        <v>8678</v>
+        <v>13697</v>
       </c>
       <c r="E52" s="6">
         <v>2018</v>
@@ -2449,17 +2694,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
+      <c r="A53" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1386719</v>
+        <v>2184790</v>
       </c>
       <c r="C53" s="3">
-        <v>59912</v>
+        <v>93835</v>
       </c>
       <c r="D53" s="3">
-        <v>1326806</v>
+        <v>2090955</v>
       </c>
       <c r="E53" s="6">
         <v>2018</v>
@@ -2473,17 +2718,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
+      <c r="A54" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>83468</v>
+        <v>131387</v>
       </c>
       <c r="C54" s="3">
-        <v>80094</v>
+        <v>126067</v>
       </c>
       <c r="D54" s="3">
-        <v>3374</v>
+        <v>5319</v>
       </c>
       <c r="E54" s="6">
         <v>2018</v>
@@ -2497,17 +2742,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
+      <c r="A55" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>11781</v>
+        <v>18546</v>
       </c>
       <c r="C55" s="3">
-        <v>10540</v>
+        <v>16590</v>
       </c>
       <c r="D55" s="3">
-        <v>1241</v>
+        <v>1956</v>
       </c>
       <c r="E55" s="6">
         <v>2018</v>
@@ -2521,17 +2766,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
+      <c r="A56" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>1757</v>
+        <v>2763</v>
       </c>
       <c r="C56" s="3">
-        <v>1579</v>
+        <v>2483</v>
       </c>
       <c r="D56" s="2">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="E56" s="6">
         <v>2018</v>
@@ -2545,17 +2790,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>229</v>
+      <c r="A57" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>103851</v>
+        <v>163138</v>
       </c>
       <c r="C57" s="3">
-        <v>52982</v>
+        <v>83048</v>
       </c>
       <c r="D57" s="3">
-        <v>50870</v>
+        <v>80090</v>
       </c>
       <c r="E57" s="6">
         <v>2018</v>
@@ -2569,14 +2814,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
+      <c r="A58" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -2593,14 +2838,14 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
+      <c r="A59" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>2388</v>
+        <v>3761</v>
       </c>
       <c r="C59" s="3">
-        <v>2388</v>
+        <v>3761</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -2617,17 +2862,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
+      <c r="A60" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>2329</v>
+        <v>3650</v>
       </c>
       <c r="C60" s="2">
-        <v>554</v>
+        <v>874</v>
       </c>
       <c r="D60" s="3">
-        <v>1775</v>
+        <v>2776</v>
       </c>
       <c r="E60" s="6">
         <v>2018</v>
@@ -2641,17 +2886,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
+      <c r="A61" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="6">
         <v>2018</v>
@@ -2665,17 +2910,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
+      <c r="A62" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>6251</v>
+        <v>9838</v>
       </c>
       <c r="C62" s="3">
-        <v>6237</v>
+        <v>9816</v>
       </c>
       <c r="D62" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E62" s="6">
         <v>2018</v>
@@ -2689,17 +2934,17 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>4694</v>
+        <v>7399</v>
       </c>
       <c r="C63" s="3">
-        <v>4693</v>
+        <v>7397</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="6">
         <v>2018</v>
@@ -2713,17 +2958,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
+      <c r="A64" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>431047</v>
+        <v>679539</v>
       </c>
       <c r="C64" s="3">
-        <v>12187</v>
+        <v>19186</v>
       </c>
       <c r="D64" s="3">
-        <v>418860</v>
+        <v>660352</v>
       </c>
       <c r="E64" s="6">
         <v>2018</v>
@@ -2737,17 +2982,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>43989</v>
+        <v>69201</v>
       </c>
       <c r="C65" s="3">
-        <v>43969</v>
+        <v>69170</v>
       </c>
       <c r="D65" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E65" s="6">
         <v>2018</v>
@@ -2761,17 +3006,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
+      <c r="A66" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>513473</v>
+        <v>807385</v>
       </c>
       <c r="C66" s="3">
-        <v>430613</v>
+        <v>676772</v>
       </c>
       <c r="D66" s="3">
-        <v>82861</v>
+        <v>130613</v>
       </c>
       <c r="E66" s="6">
         <v>2018</v>
@@ -2785,17 +3030,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
+      <c r="A67" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>156082</v>
+        <v>245866</v>
       </c>
       <c r="C67" s="3">
-        <v>4958</v>
+        <v>7808</v>
       </c>
       <c r="D67" s="3">
-        <v>151124</v>
+        <v>238058</v>
       </c>
       <c r="E67" s="6">
         <v>2018</v>
@@ -2809,17 +3054,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
+      <c r="A68" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>79496</v>
+        <v>125110</v>
       </c>
       <c r="C68" s="3">
-        <v>51248</v>
+        <v>80600</v>
       </c>
       <c r="D68" s="3">
-        <v>28248</v>
+        <v>44510</v>
       </c>
       <c r="E68" s="6">
         <v>2018</v>
@@ -2833,17 +3078,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>184344</v>
+        <v>290385</v>
       </c>
       <c r="C69" s="3">
-        <v>8343</v>
+        <v>13100</v>
       </c>
       <c r="D69" s="3">
-        <v>176000</v>
+        <v>277286</v>
       </c>
       <c r="E69" s="6">
         <v>2018</v>
@@ -2857,17 +3102,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
+      <c r="A70" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>18625</v>
+        <v>29302</v>
       </c>
       <c r="C70" s="3">
-        <v>17687</v>
-      </c>
-      <c r="D70" s="2">
-        <v>938</v>
+        <v>27830</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1472</v>
       </c>
       <c r="E70" s="6">
         <v>2018</v>
@@ -2881,17 +3126,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
+      <c r="A71" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>274907</v>
+        <v>432921</v>
       </c>
       <c r="C71" s="3">
-        <v>166224</v>
+        <v>261527</v>
       </c>
       <c r="D71" s="3">
-        <v>108683</v>
+        <v>171394</v>
       </c>
       <c r="E71" s="6">
         <v>2018</v>
@@ -2905,17 +3150,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
+      <c r="A72" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>184062</v>
+        <v>289973</v>
       </c>
       <c r="C72" s="3">
-        <v>50610</v>
+        <v>79710</v>
       </c>
       <c r="D72" s="3">
-        <v>133453</v>
+        <v>210263</v>
       </c>
       <c r="E72" s="6">
         <v>2018</v>
@@ -2929,14 +3174,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="2">
-        <v>945</v>
-      </c>
-      <c r="C73" s="2">
-        <v>945</v>
+      <c r="A73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1485</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1485</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -2953,17 +3198,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
+      <c r="A74" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>70500</v>
+        <v>110792</v>
       </c>
       <c r="C74" s="3">
-        <v>63134</v>
+        <v>99181</v>
       </c>
       <c r="D74" s="3">
-        <v>7366</v>
+        <v>11611</v>
       </c>
       <c r="E74" s="6">
         <v>2018</v>
@@ -2977,17 +3222,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
+      <c r="A75" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>205684</v>
+        <v>323299</v>
       </c>
       <c r="C75" s="3">
-        <v>193956</v>
+        <v>304814</v>
       </c>
       <c r="D75" s="3">
-        <v>11728</v>
+        <v>18484</v>
       </c>
       <c r="E75" s="6">
         <v>2018</v>
@@ -3001,17 +3246,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
+      <c r="A76" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>56198</v>
+        <v>87504</v>
       </c>
       <c r="C76" s="3">
-        <v>51885</v>
+        <v>80705</v>
       </c>
       <c r="D76" s="3">
-        <v>4313</v>
+        <v>6799</v>
       </c>
       <c r="E76" s="6">
         <v>2018</v>
@@ -3025,17 +3270,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
+      <c r="A77" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>350123</v>
+        <v>551787</v>
       </c>
       <c r="C77" s="3">
-        <v>38548</v>
+        <v>60560</v>
       </c>
       <c r="D77" s="3">
-        <v>311575</v>
+        <v>491227</v>
       </c>
       <c r="E77" s="6">
         <v>2018</v>
@@ -3049,17 +3294,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
+      <c r="A78" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>59144</v>
+        <v>93024</v>
       </c>
       <c r="C78" s="3">
-        <v>48612</v>
+        <v>76429</v>
       </c>
       <c r="D78" s="3">
-        <v>10532</v>
+        <v>16594</v>
       </c>
       <c r="E78" s="6">
         <v>2018</v>
@@ -3073,17 +3318,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
+      <c r="A79" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>17780</v>
+        <v>27987</v>
       </c>
       <c r="C79" s="3">
-        <v>9606</v>
+        <v>15102</v>
       </c>
       <c r="D79" s="3">
-        <v>8173</v>
+        <v>12885</v>
       </c>
       <c r="E79" s="6">
         <v>2018</v>
@@ -3097,17 +3342,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>230</v>
+      <c r="A80" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>29646</v>
+        <v>46660</v>
       </c>
       <c r="C80" s="3">
-        <v>21871</v>
+        <v>34419</v>
       </c>
       <c r="D80" s="3">
-        <v>7775</v>
+        <v>12241</v>
       </c>
       <c r="E80" s="6">
         <v>2018</v>
@@ -3121,17 +3366,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>70996</v>
+        <v>111759</v>
       </c>
       <c r="C81" s="3">
-        <v>27137</v>
+        <v>42701</v>
       </c>
       <c r="D81" s="3">
-        <v>43859</v>
+        <v>69058</v>
       </c>
       <c r="E81" s="6">
         <v>2018</v>
@@ -3145,17 +3390,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
+      <c r="A82" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>26752</v>
+        <v>42101</v>
       </c>
       <c r="C82" s="3">
-        <v>23734</v>
+        <v>37374</v>
       </c>
       <c r="D82" s="3">
-        <v>3018</v>
+        <v>4727</v>
       </c>
       <c r="E82" s="6">
         <v>2018</v>
@@ -3169,17 +3414,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
+      <c r="A83" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>189279</v>
+        <v>297664</v>
       </c>
       <c r="C83" s="3">
-        <v>136947</v>
+        <v>215237</v>
       </c>
       <c r="D83" s="3">
-        <v>52333</v>
+        <v>82427</v>
       </c>
       <c r="E83" s="6">
         <v>2018</v>
@@ -3193,17 +3438,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
+      <c r="A84" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>125221</v>
+        <v>196400</v>
       </c>
       <c r="C84" s="3">
-        <v>92554</v>
+        <v>144902</v>
       </c>
       <c r="D84" s="3">
-        <v>32666</v>
+        <v>51497</v>
       </c>
       <c r="E84" s="6">
         <v>2018</v>
@@ -3217,17 +3462,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
+      <c r="A85" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>26394</v>
+        <v>41325</v>
       </c>
       <c r="C85" s="3">
-        <v>13360</v>
+        <v>21000</v>
       </c>
       <c r="D85" s="3">
-        <v>13035</v>
+        <v>20326</v>
       </c>
       <c r="E85" s="6">
         <v>2018</v>
@@ -3241,17 +3486,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
+      <c r="A86" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>27188</v>
+        <v>42851</v>
       </c>
       <c r="C86" s="3">
-        <v>7600</v>
+        <v>11976</v>
       </c>
       <c r="D86" s="3">
-        <v>19589</v>
+        <v>30875</v>
       </c>
       <c r="E86" s="6">
         <v>2018</v>
@@ -3265,17 +3510,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
+      <c r="A87" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>579435</v>
+        <v>909654</v>
       </c>
       <c r="C87" s="3">
-        <v>477262</v>
+        <v>748609</v>
       </c>
       <c r="D87" s="3">
-        <v>102173</v>
+        <v>161046</v>
       </c>
       <c r="E87" s="6">
         <v>2018</v>
@@ -3289,17 +3534,17 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
+      <c r="A88" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>6065</v>
+        <v>9535</v>
       </c>
       <c r="C88" s="3">
-        <v>6064</v>
+        <v>9533</v>
       </c>
       <c r="D88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="6">
         <v>2018</v>
@@ -3313,17 +3558,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
+      <c r="A89" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>8402</v>
+        <v>13224</v>
       </c>
       <c r="C89" s="3">
-        <v>4766</v>
+        <v>7493</v>
       </c>
       <c r="D89" s="3">
-        <v>3635</v>
+        <v>5731</v>
       </c>
       <c r="E89" s="6">
         <v>2018</v>
@@ -3337,14 +3582,14 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
+      <c r="A90" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="C90" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -3361,17 +3606,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
+      <c r="A91" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>83515</v>
+        <v>131416</v>
       </c>
       <c r="C91" s="3">
-        <v>75361</v>
+        <v>118587</v>
       </c>
       <c r="D91" s="3">
-        <v>8154</v>
+        <v>12829</v>
       </c>
       <c r="E91" s="6">
         <v>2018</v>
@@ -3385,17 +3630,17 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
+      <c r="A92" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>2068</v>
+        <v>3248</v>
       </c>
       <c r="C92" s="3">
-        <v>2068</v>
+        <v>3247</v>
       </c>
       <c r="D92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="6">
         <v>2018</v>
@@ -3409,17 +3654,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
+      <c r="A93" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>31052</v>
+        <v>48892</v>
       </c>
       <c r="C93" s="3">
-        <v>17339</v>
+        <v>27273</v>
       </c>
       <c r="D93" s="3">
-        <v>13714</v>
+        <v>21618</v>
       </c>
       <c r="E93" s="6">
         <v>2018</v>
@@ -3433,17 +3678,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
+      <c r="A94" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>17915</v>
+        <v>28212</v>
       </c>
       <c r="C94" s="3">
-        <v>17580</v>
+        <v>27684</v>
       </c>
       <c r="D94" s="2">
-        <v>336</v>
+        <v>528</v>
       </c>
       <c r="E94" s="6">
         <v>2018</v>
@@ -3457,17 +3702,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>231</v>
+      <c r="A95" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2213653</v>
+        <v>3486979</v>
       </c>
       <c r="C95" s="3">
-        <v>645689</v>
+        <v>1015554</v>
       </c>
       <c r="D95" s="3">
-        <v>1567963</v>
+        <v>2471425</v>
       </c>
       <c r="E95" s="6">
         <v>2018</v>
@@ -3481,8 +3726,8 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
+      <c r="A96" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -3491,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="6">
         <v>2018</v>
@@ -3505,17 +3750,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
+      <c r="A97" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>128123</v>
+        <v>201380</v>
       </c>
       <c r="C97" s="3">
-        <v>54113</v>
+        <v>84926</v>
       </c>
       <c r="D97" s="3">
-        <v>74010</v>
+        <v>116454</v>
       </c>
       <c r="E97" s="6">
         <v>2018</v>
@@ -3529,17 +3774,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
+      <c r="A98" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>122049</v>
+        <v>191900</v>
       </c>
       <c r="C98" s="3">
-        <v>109030</v>
+        <v>171373</v>
       </c>
       <c r="D98" s="3">
-        <v>13019</v>
+        <v>20527</v>
       </c>
       <c r="E98" s="6">
         <v>2018</v>
@@ -3553,17 +3798,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
+      <c r="A99" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>95174</v>
+        <v>149800</v>
       </c>
       <c r="C99" s="3">
-        <v>74488</v>
+        <v>117188</v>
       </c>
       <c r="D99" s="3">
-        <v>20686</v>
+        <v>32613</v>
       </c>
       <c r="E99" s="6">
         <v>2018</v>
@@ -3577,17 +3822,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
+      <c r="A100" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>77990</v>
+        <v>122571</v>
       </c>
       <c r="C100" s="3">
-        <v>67273</v>
+        <v>105761</v>
       </c>
       <c r="D100" s="3">
-        <v>10717</v>
+        <v>16810</v>
       </c>
       <c r="E100" s="6">
         <v>2018</v>
@@ -3601,17 +3846,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
+      <c r="A101" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>33426</v>
+        <v>52548</v>
       </c>
       <c r="C101" s="3">
-        <v>26022</v>
+        <v>40876</v>
       </c>
       <c r="D101" s="3">
-        <v>7405</v>
+        <v>11672</v>
       </c>
       <c r="E101" s="6">
         <v>2018</v>
@@ -3625,17 +3870,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
+      <c r="A102" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>29554</v>
+        <v>46375</v>
       </c>
       <c r="C102" s="3">
-        <v>9217</v>
+        <v>14483</v>
       </c>
       <c r="D102" s="3">
-        <v>20337</v>
+        <v>31892</v>
       </c>
       <c r="E102" s="6">
         <v>2018</v>
@@ -3649,17 +3894,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
+      <c r="A103" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>374360</v>
+        <v>589846</v>
       </c>
       <c r="C103" s="3">
-        <v>52134</v>
+        <v>82029</v>
       </c>
       <c r="D103" s="3">
-        <v>322226</v>
+        <v>507817</v>
       </c>
       <c r="E103" s="6">
         <v>2018</v>
@@ -3673,17 +3918,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>232</v>
+      <c r="A104" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>321823</v>
+        <v>506885</v>
       </c>
       <c r="C104" s="3">
-        <v>56489</v>
+        <v>88956</v>
       </c>
       <c r="D104" s="3">
-        <v>265334</v>
+        <v>417928</v>
       </c>
       <c r="E104" s="6">
         <v>2018</v>
@@ -3697,17 +3942,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
+      <c r="A105" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>122407</v>
+        <v>192898</v>
       </c>
       <c r="C105" s="3">
-        <v>13462</v>
+        <v>21139</v>
       </c>
       <c r="D105" s="3">
-        <v>108945</v>
+        <v>171759</v>
       </c>
       <c r="E105" s="6">
         <v>2018</v>
@@ -3721,17 +3966,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>233</v>
+      <c r="A106" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>5919</v>
+        <v>9323</v>
       </c>
       <c r="C106" s="3">
-        <v>1824</v>
+        <v>2874</v>
       </c>
       <c r="D106" s="3">
-        <v>4096</v>
+        <v>6449</v>
       </c>
       <c r="E106" s="6">
         <v>2018</v>
@@ -3745,17 +3990,17 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
+      <c r="A107" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="C107" s="2">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="6">
         <v>2018</v>
@@ -3769,17 +4014,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
+      <c r="A108" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>10133</v>
-      </c>
-      <c r="C108" s="2">
-        <v>727</v>
+        <v>15974</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1146</v>
       </c>
       <c r="D108" s="3">
-        <v>9405</v>
+        <v>14828</v>
       </c>
       <c r="E108" s="6">
         <v>2018</v>
@@ -3793,17 +4038,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>23814</v>
+        <v>37543</v>
       </c>
       <c r="C109" s="3">
-        <v>1469</v>
+        <v>2315</v>
       </c>
       <c r="D109" s="3">
-        <v>22345</v>
+        <v>35228</v>
       </c>
       <c r="E109" s="6">
         <v>2018</v>
@@ -3817,14 +4062,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
+      <c r="A110" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>2611</v>
+        <v>4113</v>
       </c>
       <c r="C110" s="3">
-        <v>2611</v>
+        <v>4112</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3841,17 +4086,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
+      <c r="A111" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>77281</v>
+        <v>121828</v>
       </c>
       <c r="C111" s="3">
-        <v>1927</v>
+        <v>3024</v>
       </c>
       <c r="D111" s="3">
-        <v>75354</v>
+        <v>118803</v>
       </c>
       <c r="E111" s="6">
         <v>2018</v>
@@ -3865,17 +4110,17 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
+      <c r="A112" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C112" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="6">
         <v>2018</v>
@@ -3889,17 +4134,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
+      <c r="A113" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1135318</v>
+        <v>1783431</v>
       </c>
       <c r="C113" s="3">
-        <v>726704</v>
+        <v>1141715</v>
       </c>
       <c r="D113" s="3">
-        <v>408614</v>
+        <v>641716</v>
       </c>
       <c r="E113" s="6">
         <v>2018</v>
@@ -3913,17 +4158,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
+      <c r="A114" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>513550</v>
+        <v>807845</v>
       </c>
       <c r="C114" s="3">
-        <v>251931</v>
+        <v>396347</v>
       </c>
       <c r="D114" s="3">
-        <v>261619</v>
+        <v>411499</v>
       </c>
       <c r="E114" s="6">
         <v>2018</v>
@@ -3937,17 +4182,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
+      <c r="A115" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>3287997</v>
+        <v>5175354</v>
       </c>
       <c r="C115" s="3">
-        <v>2162296</v>
+        <v>3402276</v>
       </c>
       <c r="D115" s="3">
-        <v>1125700</v>
+        <v>1773077</v>
       </c>
       <c r="E115" s="6">
         <v>2018</v>
@@ -3961,17 +4206,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
+      <c r="A116" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>9289703</v>
+        <v>14585542</v>
       </c>
       <c r="C116" s="3">
-        <v>3410282</v>
+        <v>5359720</v>
       </c>
       <c r="D116" s="3">
-        <v>5879421</v>
+        <v>9225823</v>
       </c>
       <c r="E116" s="6">
         <v>2018</v>
@@ -3985,17 +4230,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
+      <c r="A117" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>2750564</v>
+        <v>4322090</v>
       </c>
       <c r="C117" s="3">
-        <v>1225193</v>
+        <v>1925571</v>
       </c>
       <c r="D117" s="3">
-        <v>1525372</v>
+        <v>2396518</v>
       </c>
       <c r="E117" s="6">
         <v>2018</v>
@@ -4009,17 +4254,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
+      <c r="A118" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>674049</v>
+        <v>1062053</v>
       </c>
       <c r="C118" s="3">
-        <v>164636</v>
+        <v>258931</v>
       </c>
       <c r="D118" s="3">
-        <v>509413</v>
+        <v>803122</v>
       </c>
       <c r="E118" s="6">
         <v>2018</v>
@@ -4033,17 +4278,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
+      <c r="A119" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>2533108</v>
+        <v>3977338</v>
       </c>
       <c r="C119" s="3">
-        <v>1365038</v>
+        <v>2144256</v>
       </c>
       <c r="D119" s="3">
-        <v>1168070</v>
+        <v>1833082</v>
       </c>
       <c r="E119" s="6">
         <v>2018</v>
@@ -4057,17 +4302,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
+      <c r="A120" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>71358</v>
+        <v>112275</v>
       </c>
       <c r="C120" s="3">
-        <v>50297</v>
+        <v>79203</v>
       </c>
       <c r="D120" s="3">
-        <v>21061</v>
+        <v>33072</v>
       </c>
       <c r="E120" s="6">
         <v>2018</v>
@@ -4081,17 +4326,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>3987474</v>
+        <v>6263147</v>
       </c>
       <c r="C121" s="3">
-        <v>3253409</v>
+        <v>5113105</v>
       </c>
       <c r="D121" s="3">
-        <v>734065</v>
+        <v>1150042</v>
       </c>
       <c r="E121" s="6">
         <v>2018</v>
@@ -4105,17 +4350,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
+      <c r="A122" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>326396</v>
+        <v>512418</v>
       </c>
       <c r="C122" s="3">
-        <v>294287</v>
+        <v>461980</v>
       </c>
       <c r="D122" s="3">
-        <v>32109</v>
+        <v>50439</v>
       </c>
       <c r="E122" s="6">
         <v>2018</v>
@@ -4129,17 +4374,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
+      <c r="A123" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>265655</v>
+        <v>417364</v>
       </c>
       <c r="C123" s="3">
-        <v>146238</v>
+        <v>229713</v>
       </c>
       <c r="D123" s="3">
-        <v>119417</v>
+        <v>187650</v>
       </c>
       <c r="E123" s="6">
         <v>2018</v>
@@ -4153,17 +4398,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>1466223</v>
+        <v>2304290</v>
       </c>
       <c r="C124" s="3">
-        <v>960832</v>
+        <v>1510296</v>
       </c>
       <c r="D124" s="3">
-        <v>505391</v>
+        <v>793994</v>
       </c>
       <c r="E124" s="6">
         <v>2018</v>
@@ -4177,17 +4422,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
+      <c r="A125" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>26432</v>
+        <v>41596</v>
       </c>
       <c r="C125" s="3">
-        <v>15292</v>
+        <v>24058</v>
       </c>
       <c r="D125" s="3">
-        <v>11140</v>
+        <v>17538</v>
       </c>
       <c r="E125" s="6">
         <v>2018</v>
@@ -4201,17 +4446,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>234</v>
+      <c r="A126" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D126" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E126" s="6">
         <v>2018</v>
@@ -4225,17 +4470,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
+      <c r="A127" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>483107</v>
+        <v>757757</v>
       </c>
       <c r="C127" s="3">
-        <v>119505</v>
+        <v>187724</v>
       </c>
       <c r="D127" s="3">
-        <v>363603</v>
+        <v>570033</v>
       </c>
       <c r="E127" s="6">
         <v>2018</v>
@@ -4249,17 +4494,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
+      <c r="A128" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>120941</v>
+        <v>190209</v>
       </c>
       <c r="C128" s="3">
-        <v>59032</v>
+        <v>92756</v>
       </c>
       <c r="D128" s="3">
-        <v>61908</v>
+        <v>97453</v>
       </c>
       <c r="E128" s="6">
         <v>2018</v>
@@ -4273,17 +4518,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
+      <c r="A129" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>370338</v>
+        <v>582137</v>
       </c>
       <c r="C129" s="3">
-        <v>114789</v>
+        <v>180352</v>
       </c>
       <c r="D129" s="3">
-        <v>255549</v>
+        <v>401785</v>
       </c>
       <c r="E129" s="6">
         <v>2018</v>
@@ -4297,14 +4542,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
+      <c r="A130" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -4321,17 +4566,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
+      <c r="A131" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>585001</v>
+        <v>919009</v>
       </c>
       <c r="C131" s="3">
-        <v>318335</v>
+        <v>500185</v>
       </c>
       <c r="D131" s="3">
-        <v>266667</v>
+        <v>418824</v>
       </c>
       <c r="E131" s="6">
         <v>2018</v>
@@ -4345,17 +4590,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
+      <c r="A132" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>27222</v>
+        <v>42900</v>
       </c>
       <c r="C132" s="3">
-        <v>22874</v>
+        <v>36048</v>
       </c>
       <c r="D132" s="3">
-        <v>4348</v>
+        <v>6852</v>
       </c>
       <c r="E132" s="6">
         <v>2018</v>
@@ -4369,17 +4614,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
+      <c r="A133" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>10859</v>
+        <v>17075</v>
       </c>
       <c r="C133" s="3">
-        <v>2564</v>
+        <v>4037</v>
       </c>
       <c r="D133" s="3">
-        <v>8295</v>
+        <v>13038</v>
       </c>
       <c r="E133" s="6">
         <v>2018</v>
@@ -4393,17 +4638,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
+      <c r="A134" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>52659</v>
+        <v>82444</v>
       </c>
       <c r="C134" s="3">
-        <v>33663</v>
+        <v>52551</v>
       </c>
       <c r="D134" s="3">
-        <v>18996</v>
+        <v>29893</v>
       </c>
       <c r="E134" s="6">
         <v>2018</v>
@@ -4417,17 +4662,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
+      <c r="A135" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>1624</v>
-      </c>
-      <c r="C135" s="2">
-        <v>803</v>
-      </c>
-      <c r="D135" s="2">
-        <v>820</v>
+        <v>2545</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1280</v>
       </c>
       <c r="E135" s="6">
         <v>2018</v>
@@ -4441,17 +4686,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
+      <c r="A136" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>255559</v>
+        <v>402149</v>
       </c>
       <c r="C136" s="3">
-        <v>103992</v>
+        <v>163346</v>
       </c>
       <c r="D136" s="3">
-        <v>151566</v>
+        <v>238804</v>
       </c>
       <c r="E136" s="6">
         <v>2018</v>
@@ -4465,17 +4710,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
+      <c r="A137" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1044747</v>
+        <v>1641938</v>
       </c>
       <c r="C137" s="3">
-        <v>859356</v>
+        <v>1350723</v>
       </c>
       <c r="D137" s="3">
-        <v>185390</v>
+        <v>291214</v>
       </c>
       <c r="E137" s="6">
         <v>2018</v>
@@ -4489,17 +4734,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
+      <c r="A138" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>319594</v>
+        <v>502091</v>
       </c>
       <c r="C138" s="3">
-        <v>200787</v>
+        <v>315658</v>
       </c>
       <c r="D138" s="3">
-        <v>118806</v>
+        <v>186433</v>
       </c>
       <c r="E138" s="6">
         <v>2018</v>
@@ -4513,17 +4758,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
+      <c r="A139" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>455</v>
+        <v>713</v>
       </c>
       <c r="C139" s="2">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="D139" s="2">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="E139" s="6">
         <v>2018</v>
@@ -4537,17 +4782,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
+      <c r="A140" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>944144</v>
+        <v>1484090</v>
       </c>
       <c r="C140" s="3">
-        <v>290434</v>
+        <v>456998</v>
       </c>
       <c r="D140" s="3">
-        <v>653710</v>
+        <v>1027092</v>
       </c>
       <c r="E140" s="6">
         <v>2018</v>
@@ -4561,17 +4806,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
+      <c r="A141" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>2810118</v>
+        <v>4427844</v>
       </c>
       <c r="C141" s="3">
-        <v>159866</v>
+        <v>251543</v>
       </c>
       <c r="D141" s="3">
-        <v>2650252</v>
+        <v>4176301</v>
       </c>
       <c r="E141" s="6">
         <v>2018</v>
@@ -4585,17 +4830,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
+      <c r="A142" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>53706</v>
+        <v>84399</v>
       </c>
       <c r="C142" s="3">
-        <v>41677</v>
+        <v>65563</v>
       </c>
       <c r="D142" s="3">
-        <v>12029</v>
+        <v>18836</v>
       </c>
       <c r="E142" s="6">
         <v>2018</v>
@@ -4609,17 +4854,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
+      <c r="A143" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>56477</v>
+        <v>88713</v>
       </c>
       <c r="C143" s="3">
-        <v>45065</v>
+        <v>70859</v>
       </c>
       <c r="D143" s="3">
-        <v>11412</v>
+        <v>17854</v>
       </c>
       <c r="E143" s="6">
         <v>2018</v>
@@ -4633,17 +4878,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>235</v>
+      <c r="A144" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>82599</v>
+        <v>129783</v>
       </c>
       <c r="C144" s="3">
-        <v>64032</v>
+        <v>100591</v>
       </c>
       <c r="D144" s="3">
-        <v>18567</v>
+        <v>29191</v>
       </c>
       <c r="E144" s="6">
         <v>2018</v>
@@ -4657,17 +4902,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
+      <c r="A145" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>45882</v>
+        <v>72159</v>
       </c>
       <c r="C145" s="3">
-        <v>43238</v>
+        <v>67994</v>
       </c>
       <c r="D145" s="3">
-        <v>2643</v>
+        <v>4165</v>
       </c>
       <c r="E145" s="6">
         <v>2018</v>
@@ -4681,17 +4926,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
+      <c r="A146" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>28131</v>
+        <v>44364</v>
       </c>
       <c r="C146" s="3">
-        <v>8580</v>
+        <v>13516</v>
       </c>
       <c r="D146" s="3">
-        <v>19550</v>
+        <v>30848</v>
       </c>
       <c r="E146" s="6">
         <v>2018</v>
@@ -4705,17 +4950,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
+      <c r="A147" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>25211</v>
+        <v>39704</v>
       </c>
       <c r="C147" s="3">
-        <v>21506</v>
+        <v>33865</v>
       </c>
       <c r="D147" s="3">
-        <v>3705</v>
+        <v>5838</v>
       </c>
       <c r="E147" s="6">
         <v>2018</v>
@@ -4729,17 +4974,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
+      <c r="A148" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>68998</v>
+        <v>108607</v>
       </c>
       <c r="C148" s="3">
-        <v>41681</v>
+        <v>65563</v>
       </c>
       <c r="D148" s="3">
-        <v>27317</v>
+        <v>43044</v>
       </c>
       <c r="E148" s="6">
         <v>2018</v>
@@ -4753,17 +4998,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
+      <c r="A149" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>6435</v>
+        <v>10140</v>
       </c>
       <c r="C149" s="3">
-        <v>3932</v>
+        <v>6188</v>
       </c>
       <c r="D149" s="3">
-        <v>2503</v>
+        <v>3952</v>
       </c>
       <c r="E149" s="6">
         <v>2018</v>
@@ -4777,17 +5022,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
+      <c r="A150" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>4641556</v>
+        <v>7309999</v>
       </c>
       <c r="C150" s="3">
-        <v>1803558</v>
+        <v>2836902</v>
       </c>
       <c r="D150" s="3">
-        <v>2837999</v>
+        <v>4473097</v>
       </c>
       <c r="E150" s="6">
         <v>2018</v>
@@ -4801,17 +5046,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>236</v>
+      <c r="A151" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>310379</v>
+        <v>488221</v>
       </c>
       <c r="C151" s="3">
-        <v>234839</v>
+        <v>369201</v>
       </c>
       <c r="D151" s="3">
-        <v>75540</v>
+        <v>119020</v>
       </c>
       <c r="E151" s="6">
         <v>2018</v>
@@ -4825,17 +5070,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>237</v>
+      <c r="A152" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>185444</v>
+        <v>290970</v>
       </c>
       <c r="C152" s="3">
-        <v>155660</v>
+        <v>244263</v>
       </c>
       <c r="D152" s="3">
-        <v>29785</v>
+        <v>46706</v>
       </c>
       <c r="E152" s="6">
         <v>2018</v>
@@ -4849,17 +5094,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
+      <c r="A153" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>65913</v>
+        <v>103525</v>
       </c>
       <c r="C153" s="3">
-        <v>52494</v>
+        <v>82482</v>
       </c>
       <c r="D153" s="3">
-        <v>13419</v>
+        <v>21043</v>
       </c>
       <c r="E153" s="6">
         <v>2018</v>
@@ -4873,17 +5118,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
+      <c r="A154" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>741529</v>
+        <v>1164451</v>
       </c>
       <c r="C154" s="3">
-        <v>484015</v>
+        <v>760638</v>
       </c>
       <c r="D154" s="3">
-        <v>257514</v>
+        <v>403813</v>
       </c>
       <c r="E154" s="6">
         <v>2018</v>
@@ -4897,17 +5142,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
+      <c r="A155" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>296091</v>
+        <v>465903</v>
       </c>
       <c r="C155" s="3">
-        <v>121855</v>
+        <v>191449</v>
       </c>
       <c r="D155" s="3">
-        <v>174236</v>
+        <v>274454</v>
       </c>
       <c r="E155" s="6">
         <v>2018</v>
@@ -4921,17 +5166,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>143</v>
+      <c r="A156" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>5937</v>
+        <v>9326</v>
       </c>
       <c r="C156" s="3">
-        <v>4338</v>
+        <v>6820</v>
       </c>
       <c r="D156" s="3">
-        <v>1599</v>
+        <v>2506</v>
       </c>
       <c r="E156" s="6">
         <v>2018</v>
@@ -4945,17 +5190,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>144</v>
+      <c r="A157" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>10885</v>
+        <v>17086</v>
       </c>
       <c r="C157" s="3">
-        <v>6061</v>
+        <v>9527</v>
       </c>
       <c r="D157" s="3">
-        <v>4824</v>
+        <v>7560</v>
       </c>
       <c r="E157" s="6">
         <v>2018</v>
@@ -4969,8 +5214,8 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>145</v>
+      <c r="A158" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -4993,17 +5238,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>146</v>
+      <c r="A159" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>7139</v>
+        <v>11255</v>
       </c>
       <c r="C159" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D159" s="3">
-        <v>7024</v>
+        <v>11074</v>
       </c>
       <c r="E159" s="6">
         <v>2018</v>
@@ -5017,17 +5262,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>147</v>
+      <c r="A160" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>46185</v>
+        <v>72477</v>
       </c>
       <c r="C160" s="3">
-        <v>31333</v>
+        <v>49177</v>
       </c>
       <c r="D160" s="3">
-        <v>14852</v>
+        <v>23300</v>
       </c>
       <c r="E160" s="6">
         <v>2018</v>
@@ -5041,17 +5286,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>148</v>
+      <c r="A161" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>22909</v>
+        <v>35988</v>
       </c>
       <c r="C161" s="3">
-        <v>22678</v>
+        <v>35628</v>
       </c>
       <c r="D161" s="2">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="E161" s="6">
         <v>2018</v>
@@ -5065,8 +5310,8 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
+      <c r="A162" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -5089,17 +5334,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>149</v>
+      <c r="A163" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>13247124</v>
+        <v>20836821</v>
       </c>
       <c r="C163" s="3">
-        <v>6126246</v>
+        <v>9618847</v>
       </c>
       <c r="D163" s="3">
-        <v>7120877</v>
+        <v>11217974</v>
       </c>
       <c r="E163" s="6">
         <v>2018</v>
@@ -5113,17 +5358,17 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>150</v>
+      <c r="A164" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>1472</v>
+        <v>2312</v>
       </c>
       <c r="C164" s="3">
-        <v>1471</v>
+        <v>2311</v>
       </c>
       <c r="D164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="6">
         <v>2018</v>
@@ -5137,17 +5382,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>151</v>
+      <c r="A165" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>514864</v>
+        <v>808214</v>
       </c>
       <c r="C165" s="3">
-        <v>408420</v>
+        <v>640450</v>
       </c>
       <c r="D165" s="3">
-        <v>106445</v>
+        <v>167764</v>
       </c>
       <c r="E165" s="6">
         <v>2018</v>
@@ -5161,17 +5406,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>152</v>
+      <c r="A166" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>2318</v>
+        <v>3652</v>
       </c>
       <c r="C166" s="3">
-        <v>2312</v>
+        <v>3643</v>
       </c>
       <c r="D166" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E166" s="6">
         <v>2018</v>
@@ -5185,14 +5430,14 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>153</v>
+      <c r="A167" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>70960</v>
+        <v>111352</v>
       </c>
       <c r="C167" s="3">
-        <v>70959</v>
+        <v>111351</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
@@ -5209,17 +5454,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>154</v>
+      <c r="A168" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>6370</v>
+        <v>10025</v>
       </c>
       <c r="C168" s="3">
-        <v>4289</v>
+        <v>6744</v>
       </c>
       <c r="D168" s="3">
-        <v>2081</v>
+        <v>3281</v>
       </c>
       <c r="E168" s="6">
         <v>2018</v>
@@ -5233,14 +5478,14 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>155</v>
+      <c r="A169" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>3184</v>
+        <v>5000</v>
       </c>
       <c r="C169" s="3">
-        <v>3184</v>
+        <v>5000</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -5257,17 +5502,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>156</v>
+      <c r="A170" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>57977</v>
+        <v>91258</v>
       </c>
       <c r="C170" s="3">
-        <v>37989</v>
+        <v>59762</v>
       </c>
       <c r="D170" s="3">
-        <v>19989</v>
+        <v>31496</v>
       </c>
       <c r="E170" s="6">
         <v>2018</v>
@@ -5281,17 +5526,17 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>157</v>
+      <c r="A171" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="C171" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
         <v>2018</v>
@@ -5305,17 +5550,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>158</v>
+      <c r="A172" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>4435270</v>
+        <v>6980781</v>
       </c>
       <c r="C172" s="3">
-        <v>1371167</v>
+        <v>2152741</v>
       </c>
       <c r="D172" s="3">
-        <v>3064103</v>
+        <v>4828039</v>
       </c>
       <c r="E172" s="6">
         <v>2018</v>
@@ -5329,14 +5574,14 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>159</v>
+      <c r="A173" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>3798</v>
+        <v>5985</v>
       </c>
       <c r="C173" s="3">
-        <v>3798</v>
+        <v>5984</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -5353,17 +5598,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>160</v>
+      <c r="A174" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>1874382</v>
+        <v>2951094</v>
       </c>
       <c r="C174" s="3">
-        <v>603777</v>
+        <v>949820</v>
       </c>
       <c r="D174" s="3">
-        <v>1270605</v>
+        <v>2001274</v>
       </c>
       <c r="E174" s="6">
         <v>2018</v>
@@ -5377,17 +5622,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>161</v>
+      <c r="A175" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>566337</v>
+        <v>891703</v>
       </c>
       <c r="C175" s="3">
-        <v>307233</v>
+        <v>483233</v>
       </c>
       <c r="D175" s="3">
-        <v>259104</v>
+        <v>408470</v>
       </c>
       <c r="E175" s="6">
         <v>2018</v>
@@ -5401,17 +5646,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>162</v>
+      <c r="A176" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>1088</v>
+        <v>1715</v>
       </c>
       <c r="C176" s="3">
-        <v>1086</v>
+        <v>1711</v>
       </c>
       <c r="D176" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176" s="6">
         <v>2018</v>
@@ -5425,17 +5670,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>163</v>
+      <c r="A177" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>113986</v>
+        <v>179460</v>
       </c>
       <c r="C177" s="3">
-        <v>63126</v>
+        <v>99322</v>
       </c>
       <c r="D177" s="3">
-        <v>50860</v>
+        <v>80138</v>
       </c>
       <c r="E177" s="6">
         <v>2018</v>
@@ -5449,17 +5694,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>164</v>
+      <c r="A178" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>40483</v>
+        <v>63373</v>
       </c>
       <c r="C178" s="3">
-        <v>28665</v>
+        <v>44918</v>
       </c>
       <c r="D178" s="3">
-        <v>11818</v>
+        <v>18454</v>
       </c>
       <c r="E178" s="6">
         <v>2018</v>
@@ -5473,14 +5718,14 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>165</v>
+      <c r="A179" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>2040</v>
+        <v>3204</v>
       </c>
       <c r="C179" s="3">
-        <v>2040</v>
+        <v>3204</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5497,17 +5742,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>166</v>
+      <c r="A180" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>82156</v>
+        <v>129283</v>
       </c>
       <c r="C180" s="3">
-        <v>72589</v>
+        <v>114228</v>
       </c>
       <c r="D180" s="3">
-        <v>9567</v>
+        <v>15055</v>
       </c>
       <c r="E180" s="6">
         <v>2018</v>
@@ -5521,17 +5766,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>167</v>
+      <c r="A181" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>228406</v>
+        <v>358968</v>
       </c>
       <c r="C181" s="3">
-        <v>149418</v>
+        <v>234498</v>
       </c>
       <c r="D181" s="3">
-        <v>78989</v>
+        <v>124470</v>
       </c>
       <c r="E181" s="6">
         <v>2018</v>
@@ -5545,14 +5790,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>168</v>
+      <c r="A182" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="B182" s="2">
-        <v>387</v>
+        <v>610</v>
       </c>
       <c r="C182" s="2">
-        <v>386</v>
+        <v>609</v>
       </c>
       <c r="D182" s="2">
         <v>0</v>
@@ -5569,14 +5814,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>169</v>
+      <c r="A183" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="2">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="C183" s="2">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5593,17 +5838,17 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>170</v>
+      <c r="A184" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>1619</v>
+        <v>2540</v>
       </c>
       <c r="C184" s="3">
-        <v>1618</v>
+        <v>2539</v>
       </c>
       <c r="D184" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="6">
         <v>2018</v>
@@ -5617,17 +5862,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>171</v>
+      <c r="A185" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>82205</v>
+        <v>128866</v>
       </c>
       <c r="C185" s="3">
-        <v>75158</v>
+        <v>117768</v>
       </c>
       <c r="D185" s="3">
-        <v>7047</v>
+        <v>11098</v>
       </c>
       <c r="E185" s="6">
         <v>2018</v>
@@ -5641,17 +5886,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>172</v>
+      <c r="A186" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>8270</v>
+        <v>13028</v>
       </c>
       <c r="C186" s="3">
-        <v>5245</v>
+        <v>8262</v>
       </c>
       <c r="D186" s="3">
-        <v>3025</v>
+        <v>4766</v>
       </c>
       <c r="E186" s="6">
         <v>2018</v>
@@ -5665,17 +5910,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>173</v>
+      <c r="A187" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>18180</v>
+        <v>28627</v>
       </c>
       <c r="C187" s="3">
-        <v>17679</v>
+        <v>27841</v>
       </c>
       <c r="D187" s="2">
-        <v>501</v>
+        <v>786</v>
       </c>
       <c r="E187" s="6">
         <v>2018</v>
@@ -5689,17 +5934,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>174</v>
+      <c r="A188" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>31289</v>
+        <v>49152</v>
       </c>
       <c r="C188" s="3">
-        <v>28974</v>
+        <v>45516</v>
       </c>
       <c r="D188" s="3">
-        <v>2315</v>
+        <v>3636</v>
       </c>
       <c r="E188" s="6">
         <v>2018</v>
@@ -5713,17 +5958,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>175</v>
+      <c r="A189" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>24372</v>
+        <v>38383</v>
       </c>
       <c r="C189" s="3">
-        <v>20229</v>
+        <v>31851</v>
       </c>
       <c r="D189" s="3">
-        <v>4143</v>
+        <v>6532</v>
       </c>
       <c r="E189" s="6">
         <v>2018</v>
@@ -5737,17 +5982,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>176</v>
+      <c r="A190" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>1211</v>
+        <v>1903</v>
       </c>
       <c r="C190" s="3">
-        <v>1204</v>
+        <v>1893</v>
       </c>
       <c r="D190" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E190" s="6">
         <v>2018</v>
@@ -5761,17 +6006,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>177</v>
+      <c r="A191" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>2517643</v>
+        <v>3960149</v>
       </c>
       <c r="C191" s="3">
-        <v>1852082</v>
+        <v>2912483</v>
       </c>
       <c r="D191" s="3">
-        <v>665561</v>
+        <v>1047665</v>
       </c>
       <c r="E191" s="6">
         <v>2018</v>
@@ -5785,8 +6030,8 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>178</v>
+      <c r="A192" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
@@ -5809,17 +6054,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>179</v>
+      <c r="A193" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>43106</v>
+        <v>67862</v>
       </c>
       <c r="C193" s="3">
-        <v>26502</v>
+        <v>41685</v>
       </c>
       <c r="D193" s="3">
-        <v>16604</v>
+        <v>26176</v>
       </c>
       <c r="E193" s="6">
         <v>2018</v>
@@ -5833,17 +6078,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>180</v>
+      <c r="A194" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>261558</v>
+        <v>410091</v>
       </c>
       <c r="C194" s="3">
-        <v>259334</v>
+        <v>406585</v>
       </c>
       <c r="D194" s="3">
-        <v>2224</v>
+        <v>3507</v>
       </c>
       <c r="E194" s="6">
         <v>2018</v>
@@ -5857,17 +6102,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>181</v>
+      <c r="A195" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>63953</v>
+        <v>100493</v>
       </c>
       <c r="C195" s="3">
-        <v>61251</v>
+        <v>96240</v>
       </c>
       <c r="D195" s="3">
-        <v>2702</v>
+        <v>4253</v>
       </c>
       <c r="E195" s="6">
         <v>2018</v>
@@ -5881,17 +6126,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>182</v>
+      <c r="A196" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1190012</v>
+        <v>1873143</v>
       </c>
       <c r="C196" s="3">
-        <v>316813</v>
+        <v>498346</v>
       </c>
       <c r="D196" s="3">
-        <v>873199</v>
+        <v>1374797</v>
       </c>
       <c r="E196" s="6">
         <v>2018</v>
@@ -5905,17 +6150,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
+      <c r="A197" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>95249</v>
+        <v>150260</v>
       </c>
       <c r="C197" s="3">
-        <v>28595</v>
+        <v>44998</v>
       </c>
       <c r="D197" s="3">
-        <v>66654</v>
+        <v>105263</v>
       </c>
       <c r="E197" s="6">
         <v>2018</v>
@@ -5929,17 +6174,17 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
+      <c r="A198" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2018</v>
@@ -5953,17 +6198,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>183</v>
+      <c r="A199" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="2">
-        <v>531</v>
+        <v>837</v>
       </c>
       <c r="C199" s="2">
-        <v>527</v>
+        <v>830</v>
       </c>
       <c r="D199" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E199" s="6">
         <v>2018</v>
@@ -5977,17 +6222,17 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B200" s="2">
-        <v>767</v>
-      </c>
-      <c r="C200" s="2">
-        <v>767</v>
+      <c r="A200" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1205</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1205</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="6">
         <v>2018</v>
@@ -6001,17 +6246,17 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>185</v>
+      <c r="A201" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="2">
-        <v>506</v>
+        <v>788</v>
       </c>
       <c r="C201" s="2">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="D201" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E201" s="6">
         <v>2018</v>
@@ -6025,17 +6270,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>186</v>
+      <c r="A202" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>55091</v>
+        <v>86718</v>
       </c>
       <c r="C202" s="3">
-        <v>35674</v>
+        <v>56146</v>
       </c>
       <c r="D202" s="3">
-        <v>19417</v>
+        <v>30572</v>
       </c>
       <c r="E202" s="6">
         <v>2018</v>
@@ -6049,17 +6294,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
+      <c r="A203" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>10129</v>
+        <v>15941</v>
       </c>
       <c r="C203" s="3">
-        <v>7392</v>
+        <v>11628</v>
       </c>
       <c r="D203" s="3">
-        <v>2737</v>
+        <v>4313</v>
       </c>
       <c r="E203" s="6">
         <v>2018</v>
@@ -6073,17 +6318,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>187</v>
+      <c r="A204" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>18180</v>
+        <v>28408</v>
       </c>
       <c r="C204" s="3">
-        <v>14976</v>
+        <v>23366</v>
       </c>
       <c r="D204" s="3">
-        <v>3204</v>
+        <v>5042</v>
       </c>
       <c r="E204" s="6">
         <v>2018</v>
@@ -6097,14 +6342,14 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>188</v>
+      <c r="A205" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C205" s="2">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -6121,17 +6366,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
+      <c r="A206" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>205099</v>
+        <v>322369</v>
       </c>
       <c r="C206" s="3">
-        <v>90575</v>
+        <v>141918</v>
       </c>
       <c r="D206" s="3">
-        <v>114524</v>
+        <v>180451</v>
       </c>
       <c r="E206" s="6">
         <v>2018</v>
@@ -6145,17 +6390,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>189</v>
+      <c r="A207" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>608518</v>
+        <v>951537</v>
       </c>
       <c r="C207" s="3">
-        <v>145180</v>
+        <v>221048</v>
       </c>
       <c r="D207" s="3">
-        <v>463338</v>
+        <v>730489</v>
       </c>
       <c r="E207" s="6">
         <v>2018</v>
@@ -6169,14 +6414,14 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>190</v>
+      <c r="A208" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>2825</v>
+        <v>4439</v>
       </c>
       <c r="C208" s="3">
-        <v>2825</v>
+        <v>4439</v>
       </c>
       <c r="D208" s="2">
         <v>0</v>
@@ -6193,17 +6438,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>191</v>
+      <c r="A209" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="2">
-        <v>386</v>
+        <v>609</v>
       </c>
       <c r="C209" s="2">
-        <v>324</v>
+        <v>511</v>
       </c>
       <c r="D209" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E209" s="6">
         <v>2018</v>
@@ -6217,8 +6462,8 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>192</v>
+      <c r="A210" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
@@ -6227,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="6">
         <v>2018</v>
@@ -6241,14 +6486,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>193</v>
+      <c r="A211" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>580</v>
+        <v>911</v>
       </c>
       <c r="C211" s="2">
-        <v>580</v>
+        <v>911</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6265,17 +6510,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>194</v>
+      <c r="A212" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C212" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="6">
         <v>2018</v>
@@ -6289,17 +6534,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>195</v>
+      <c r="A213" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>31906313</v>
+        <v>50216504</v>
       </c>
       <c r="C213" s="3">
-        <v>20850955</v>
+        <v>32807225</v>
       </c>
       <c r="D213" s="3">
-        <v>11055358</v>
+        <v>17409278</v>
       </c>
       <c r="E213" s="6">
         <v>2018</v>
@@ -6313,17 +6558,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>196</v>
+      <c r="A214" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>2683845</v>
+        <v>4222944</v>
       </c>
       <c r="C214" s="3">
-        <v>1330777</v>
+        <v>2092505</v>
       </c>
       <c r="D214" s="3">
-        <v>1353068</v>
+        <v>2130440</v>
       </c>
       <c r="E214" s="6">
         <v>2018</v>
@@ -6337,17 +6582,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>197</v>
+      <c r="A215" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>29190635</v>
+        <v>45943731</v>
       </c>
       <c r="C215" s="3">
-        <v>19502622</v>
+        <v>30687404</v>
       </c>
       <c r="D215" s="3">
-        <v>9688013</v>
+        <v>15256327</v>
       </c>
       <c r="E215" s="6">
         <v>2018</v>
@@ -6361,17 +6606,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
+      <c r="A216" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>14293</v>
+        <v>22536</v>
       </c>
       <c r="C216" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D216" s="3">
-        <v>14278</v>
+        <v>22512</v>
       </c>
       <c r="E216" s="6">
         <v>2018</v>
@@ -6385,14 +6630,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>198</v>
+      <c r="A217" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>17534</v>
+        <v>27281</v>
       </c>
       <c r="C217" s="3">
-        <v>17534</v>
+        <v>27280</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -6409,14 +6654,14 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>199</v>
+      <c r="A218" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C218" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2">
         <v>0</v>
@@ -6433,17 +6678,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
+      <c r="A219" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>8807299</v>
+        <v>13862121</v>
       </c>
       <c r="C219" s="3">
-        <v>2425125</v>
+        <v>3810441</v>
       </c>
       <c r="D219" s="3">
-        <v>6382175</v>
+        <v>10051680</v>
       </c>
       <c r="E219" s="6">
         <v>2018</v>
@@ -6457,17 +6702,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
+      <c r="A220" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>7692226</v>
+        <v>12107582</v>
       </c>
       <c r="C220" s="3">
-        <v>2065349</v>
+        <v>3245415</v>
       </c>
       <c r="D220" s="3">
-        <v>5626877</v>
+        <v>8862167</v>
       </c>
       <c r="E220" s="6">
         <v>2018</v>
@@ -6481,17 +6726,17 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B221" s="2">
-        <v>877</v>
+      <c r="A221" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1364</v>
       </c>
       <c r="C221" s="2">
-        <v>543</v>
+        <v>838</v>
       </c>
       <c r="D221" s="2">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E221" s="6">
         <v>2018</v>
@@ -6505,17 +6750,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>200</v>
+      <c r="A222" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>19114</v>
+        <v>30069</v>
       </c>
       <c r="C222" s="3">
-        <v>17234</v>
+        <v>27104</v>
       </c>
       <c r="D222" s="3">
-        <v>1880</v>
+        <v>2965</v>
       </c>
       <c r="E222" s="6">
         <v>2018</v>
@@ -6529,14 +6774,14 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>201</v>
+      <c r="A223" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -6553,14 +6798,14 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>202</v>
+      <c r="A224" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
@@ -6577,17 +6822,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
+      <c r="A225" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="C225" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="D225" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E225" s="6">
         <v>2018</v>
@@ -6601,17 +6846,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>203</v>
+      <c r="A226" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>61322</v>
+        <v>96660</v>
       </c>
       <c r="C226" s="3">
-        <v>3907</v>
+        <v>6141</v>
       </c>
       <c r="D226" s="3">
-        <v>57416</v>
+        <v>90518</v>
       </c>
       <c r="E226" s="6">
         <v>2018</v>
@@ -6625,17 +6870,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>204</v>
+      <c r="A227" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>2057</v>
+        <v>3227</v>
       </c>
       <c r="C227" s="3">
-        <v>1782</v>
+        <v>2793</v>
       </c>
       <c r="D227" s="2">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="E227" s="6">
         <v>2018</v>
@@ -6649,17 +6894,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>205</v>
+      <c r="A228" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>776687</v>
+        <v>1222591</v>
       </c>
       <c r="C228" s="3">
-        <v>222196</v>
+        <v>349548</v>
       </c>
       <c r="D228" s="3">
-        <v>554491</v>
+        <v>873043</v>
       </c>
       <c r="E228" s="6">
         <v>2018</v>
@@ -6673,14 +6918,14 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>206</v>
+      <c r="A229" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C229" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D229" s="2">
         <v>0</v>
@@ -6697,17 +6942,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
+      <c r="A230" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>117870</v>
+        <v>185356</v>
       </c>
       <c r="C230" s="3">
-        <v>25292</v>
+        <v>39513</v>
       </c>
       <c r="D230" s="3">
-        <v>92578</v>
+        <v>145843</v>
       </c>
       <c r="E230" s="6">
         <v>2018</v>
@@ -6721,14 +6966,14 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>207</v>
+      <c r="A231" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C231" s="2">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D231" s="2">
         <v>0</v>
@@ -6745,17 +6990,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>208</v>
+      <c r="A232" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>48436</v>
+        <v>76322</v>
       </c>
       <c r="C232" s="3">
-        <v>4913</v>
+        <v>7704</v>
       </c>
       <c r="D232" s="3">
-        <v>43524</v>
+        <v>68618</v>
       </c>
       <c r="E232" s="6">
         <v>2018</v>
@@ -6769,17 +7014,17 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B233" s="2">
-        <v>879</v>
-      </c>
-      <c r="C233" s="2">
-        <v>850</v>
+      <c r="A233" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1384</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1338</v>
       </c>
       <c r="D233" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E233" s="6">
         <v>2018</v>
@@ -6793,14 +7038,14 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>210</v>
+      <c r="A234" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="2">
         <v>0</v>
@@ -6817,14 +7062,14 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>211</v>
+      <c r="A235" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="2">
         <v>0</v>
@@ -6841,17 +7086,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>212</v>
+      <c r="A236" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>2016</v>
+        <v>3177</v>
       </c>
       <c r="C236" s="3">
-        <v>1987</v>
+        <v>3130</v>
       </c>
       <c r="D236" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E236" s="6">
         <v>2018</v>
@@ -6865,14 +7110,14 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>213</v>
+      <c r="A237" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>467</v>
+        <v>735</v>
       </c>
       <c r="C237" s="2">
-        <v>467</v>
+        <v>735</v>
       </c>
       <c r="D237" s="2">
         <v>0</v>
@@ -6889,14 +7134,14 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>214</v>
+      <c r="A238" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="2">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="C238" s="2">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="D238" s="2">
         <v>0</v>
@@ -6913,14 +7158,14 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B239" s="2">
-        <v>734</v>
-      </c>
-      <c r="C239" s="2">
-        <v>734</v>
+      <c r="A239" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1150</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1150</v>
       </c>
       <c r="D239" s="2">
         <v>0</v>
@@ -6937,17 +7182,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>216</v>
+      <c r="A240" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>81098</v>
+        <v>126981</v>
       </c>
       <c r="C240" s="3">
-        <v>76730</v>
+        <v>120094</v>
       </c>
       <c r="D240" s="3">
-        <v>4368</v>
+        <v>6887</v>
       </c>
       <c r="E240" s="6">
         <v>2018</v>
@@ -6961,14 +7206,14 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>217</v>
+      <c r="A241" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="C241" s="2">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -6985,17 +7230,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>218</v>
+      <c r="A242" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>2426</v>
+        <v>3819</v>
       </c>
       <c r="C242" s="3">
-        <v>2064</v>
+        <v>3248</v>
       </c>
       <c r="D242" s="2">
-        <v>362</v>
+        <v>571</v>
       </c>
       <c r="E242" s="6">
         <v>2018</v>
@@ -7009,14 +7254,14 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>219</v>
+      <c r="A243" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C243" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -7033,17 +7278,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
+      <c r="A244" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="2">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C244" s="2">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="6">
         <v>2018</v>
@@ -7057,17 +7302,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>220</v>
+      <c r="A245" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>17635</v>
+        <v>27790</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="3">
-        <v>17635</v>
+        <v>27790</v>
       </c>
       <c r="E245" s="6">
         <v>2018</v>
